--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H2">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I2">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J2">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N2">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O2">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P2">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q2">
-        <v>0.1681830660344445</v>
+        <v>0.515906235908889</v>
       </c>
       <c r="R2">
-        <v>1.51364759431</v>
+        <v>4.643156123180001</v>
       </c>
       <c r="S2">
-        <v>0.001210241796456678</v>
+        <v>0.002061659278029509</v>
       </c>
       <c r="T2">
-        <v>0.001211699175287295</v>
+        <v>0.002065928017290209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H3">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I3">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J3">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P3">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q3">
-        <v>0.3471995075566667</v>
+        <v>0.4302649586586667</v>
       </c>
       <c r="R3">
-        <v>3.12479556801</v>
+        <v>3.872384627928001</v>
       </c>
       <c r="S3">
-        <v>0.002498440334463856</v>
+        <v>0.001719420472727687</v>
       </c>
       <c r="T3">
-        <v>0.002501448967997805</v>
+        <v>0.00172298059430345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H4">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I4">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J4">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N4">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O4">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P4">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q4">
-        <v>18.077907746195</v>
+        <v>34.79677684359601</v>
       </c>
       <c r="R4">
-        <v>162.701169715755</v>
+        <v>313.170991592364</v>
       </c>
       <c r="S4">
-        <v>0.1300882429058126</v>
+        <v>0.1390545274156978</v>
       </c>
       <c r="T4">
-        <v>0.1302448957762375</v>
+        <v>0.1393424447873427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H5">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I5">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J5">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N5">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O5">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P5">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q5">
-        <v>0.1505635975291667</v>
+        <v>0.4660472326646667</v>
       </c>
       <c r="R5">
-        <v>0.9033815851750001</v>
+        <v>2.796283395988</v>
       </c>
       <c r="S5">
-        <v>0.001083452472660713</v>
+        <v>0.001862413233928759</v>
       </c>
       <c r="T5">
-        <v>0.0007231714474631493</v>
+        <v>0.001244179618086702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H6">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I6">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J6">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N6">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O6">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P6">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q6">
-        <v>22.98352291422055</v>
+        <v>38.97479839291734</v>
       </c>
       <c r="R6">
-        <v>206.851706227985</v>
+        <v>350.773185536256</v>
       </c>
       <c r="S6">
-        <v>0.1653889462029</v>
+        <v>0.1557506948419174</v>
       </c>
       <c r="T6">
-        <v>0.165588108345308</v>
+        <v>0.1560731822252781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.923783</v>
       </c>
       <c r="I7">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J7">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N7">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O7">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P7">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q7">
-        <v>0.2298386410562222</v>
+        <v>0.5689245563261111</v>
       </c>
       <c r="R7">
-        <v>2.068547769506</v>
+        <v>5.120321006935</v>
       </c>
       <c r="S7">
-        <v>0.001653914014090311</v>
+        <v>0.002273530553438964</v>
       </c>
       <c r="T7">
-        <v>0.0016559056650801</v>
+        <v>0.002278237979751979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.923783</v>
       </c>
       <c r="I8">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J8">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P8">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q8">
         <v>0.4744821513473333</v>
@@ -948,10 +948,10 @@
         <v>4.270339362126</v>
       </c>
       <c r="S8">
-        <v>0.003414363554982521</v>
+        <v>0.001896120770591711</v>
       </c>
       <c r="T8">
-        <v>0.003418475147541653</v>
+        <v>0.001900046756453056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.923783</v>
       </c>
       <c r="I9">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J9">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N9">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O9">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P9">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q9">
-        <v>24.705232503457</v>
+        <v>38.372749638207</v>
       </c>
       <c r="R9">
-        <v>222.347092531113</v>
+        <v>345.354746743863</v>
       </c>
       <c r="S9">
-        <v>0.1777783320987871</v>
+        <v>0.1533447937021725</v>
       </c>
       <c r="T9">
-        <v>0.1779924135976262</v>
+        <v>0.1536622995811877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>3.923783</v>
       </c>
       <c r="I10">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J10">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N10">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O10">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P10">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q10">
-        <v>0.2057599107008333</v>
+        <v>0.5139416750868333</v>
       </c>
       <c r="R10">
-        <v>1.234559464205</v>
+        <v>3.083650050521</v>
       </c>
       <c r="S10">
-        <v>0.001480643978237037</v>
+        <v>0.00205380851995734</v>
       </c>
       <c r="T10">
-        <v>0.0009882846510929377</v>
+        <v>0.001372040669295137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.923783</v>
       </c>
       <c r="I11">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J11">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N11">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O11">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P11">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q11">
-        <v>31.40923636275677</v>
+        <v>42.98013542039466</v>
       </c>
       <c r="R11">
-        <v>282.6831272648109</v>
+        <v>386.821218783552</v>
       </c>
       <c r="S11">
-        <v>0.2260202024929789</v>
+        <v>0.1717567821298255</v>
       </c>
       <c r="T11">
-        <v>0.2262923770777349</v>
+        <v>0.1721124106892982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H12">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I12">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J12">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N12">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O12">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P12">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q12">
-        <v>0.09202653004177778</v>
+        <v>0.2827390982905555</v>
       </c>
       <c r="R12">
-        <v>0.828238770376</v>
+        <v>2.544651884615</v>
       </c>
       <c r="S12">
-        <v>0.0006622209694799222</v>
+        <v>0.001129879122754713</v>
       </c>
       <c r="T12">
-        <v>0.0006630184190680427</v>
+        <v>0.001132218577883185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H13">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I13">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J13">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P13">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q13">
-        <v>0.1899808742106667</v>
+        <v>0.2358039464726667</v>
       </c>
       <c r="R13">
-        <v>1.709827867896</v>
+        <v>2.122235518254</v>
       </c>
       <c r="S13">
-        <v>0.001367098364409877</v>
+        <v>0.000942317344129181</v>
       </c>
       <c r="T13">
-        <v>0.001368744630653114</v>
+        <v>0.0009442684458877451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H14">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I14">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J14">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N14">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O14">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P14">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q14">
-        <v>9.891882455971999</v>
+        <v>19.070150006703</v>
       </c>
       <c r="R14">
-        <v>89.026942103748</v>
+        <v>171.631350060327</v>
       </c>
       <c r="S14">
-        <v>0.07118177754829387</v>
+        <v>0.07620794043217793</v>
       </c>
       <c r="T14">
-        <v>0.07126749497767725</v>
+        <v>0.07636573169806106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H15">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I15">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J15">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N15">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O15">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P15">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q15">
-        <v>0.08238549669666667</v>
+        <v>0.2554141918681667</v>
       </c>
       <c r="R15">
-        <v>0.49431298018</v>
+        <v>1.532485151209</v>
       </c>
       <c r="S15">
-        <v>0.0005928442968433536</v>
+        <v>0.001020683608287322</v>
       </c>
       <c r="T15">
-        <v>0.0003957054684785778</v>
+        <v>0.0006818646467988172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H16">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I16">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J16">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N16">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O16">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P16">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q16">
-        <v>12.57614046290622</v>
+        <v>21.35988787624533</v>
       </c>
       <c r="R16">
-        <v>113.185264166156</v>
+        <v>192.238990886208</v>
       </c>
       <c r="S16">
-        <v>0.09049764155923996</v>
+        <v>0.0853581677301305</v>
       </c>
       <c r="T16">
-        <v>0.09060661924239</v>
+        <v>0.08553490486884885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H17">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I17">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J17">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N17">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O17">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P17">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q17">
-        <v>0.07005914898066667</v>
+        <v>0.3495492374188889</v>
       </c>
       <c r="R17">
-        <v>0.6305323408260001</v>
+        <v>3.14594313677</v>
       </c>
       <c r="S17">
-        <v>0.0005041441586230988</v>
+        <v>0.001396865124499216</v>
       </c>
       <c r="T17">
-        <v>0.0005047512513763879</v>
+        <v>0.001399757383691798</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H18">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I18">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J18">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.088322</v>
       </c>
       <c r="O18">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P18">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q18">
-        <v>0.144631101094</v>
+        <v>0.2915234934546667</v>
       </c>
       <c r="R18">
-        <v>1.301679909846</v>
+        <v>2.623711441092</v>
       </c>
       <c r="S18">
-        <v>0.001040762353420656</v>
+        <v>0.001164983233795474</v>
       </c>
       <c r="T18">
-        <v>0.00104201564431345</v>
+        <v>0.00116739537324119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H19">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I19">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J19">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N19">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O19">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P19">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q19">
-        <v>7.530620423997</v>
+        <v>23.576351599794</v>
       </c>
       <c r="R19">
-        <v>67.77558381597299</v>
+        <v>212.187164398146</v>
       </c>
       <c r="S19">
-        <v>0.05419018576165644</v>
+        <v>0.09421557762753081</v>
       </c>
       <c r="T19">
-        <v>0.05425544183675438</v>
+        <v>0.09441065435018529</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>26</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H20">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I20">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J20">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N20">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O20">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P20">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q20">
-        <v>0.0627194982175</v>
+        <v>0.3157675628636666</v>
       </c>
       <c r="R20">
-        <v>0.376316989305</v>
+        <v>1.894605377182</v>
       </c>
       <c r="S20">
-        <v>0.0004513281865135152</v>
+        <v>0.001261867138573635</v>
       </c>
       <c r="T20">
-        <v>0.0003012477853508083</v>
+        <v>0.0008429865864058606</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H21">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I21">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J21">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N21">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O21">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P21">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q21">
-        <v>9.574127133692333</v>
+        <v>26.40714554030933</v>
       </c>
       <c r="R21">
-        <v>86.16714420323099</v>
+        <v>237.664309862784</v>
       </c>
       <c r="S21">
-        <v>0.06889521695014987</v>
+        <v>0.105527967719834</v>
       </c>
       <c r="T21">
-        <v>0.06897818089256855</v>
+        <v>0.105746467150709</v>
       </c>
     </row>
   </sheetData>
